--- a/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
+++ b/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
@@ -19,63 +19,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>atk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>waitTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merlion</t>
+  </si>
+  <si>
+    <t>Kitsune</t>
+  </si>
+  <si>
+    <t>Garfish</t>
+  </si>
+  <si>
+    <t>Church grim</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>EARTH</t>
+  </si>
+  <si>
+    <t>FIRE</t>
+  </si>
+  <si>
+    <t>VOID</t>
+  </si>
+  <si>
+    <t>WIND</t>
+  </si>
+  <si>
+    <t>Otso</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>hp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>atk</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>waitTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>elem</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Merlion</t>
-  </si>
-  <si>
-    <t>Kitsune</t>
-  </si>
-  <si>
-    <t>Garfish</t>
-  </si>
-  <si>
-    <t>Church grim</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>WATER</t>
-  </si>
-  <si>
-    <t>EARTH</t>
-  </si>
-  <si>
-    <t>FIRE</t>
-  </si>
-  <si>
-    <t>VOID</t>
-  </si>
-  <si>
-    <t>WIND</t>
-  </si>
-  <si>
-    <t>Otso</t>
+    <t>maxHp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -401,161 +405,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>65</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D2">
         <v>15</v>
       </c>
       <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>65</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>150</v>
       </c>
       <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
         <v>30</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>50</v>
       </c>
       <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
         <v>20</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>75</v>
       </c>
       <c r="C6">
+        <v>75</v>
+      </c>
+      <c r="D6">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
       <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>50</v>
       </c>
       <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
       <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
-        <v>15</v>
+      <c r="G7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>"FIRE,WIND,VOID,EARTH,WATER"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
+++ b/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -581,7 +581,7 @@
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
-      <formula1>"FIRE,WIND,VOID,EARTH,WATER"</formula1>
+      <formula1>"FIRE,WIND,VOID,EARTH,WATER,NUM"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
+++ b/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
@@ -50,9 +50,6 @@
     <t>Garfish</t>
   </si>
   <si>
-    <t>Church grim</t>
-  </si>
-  <si>
     <t>Lantern</t>
   </si>
   <si>
@@ -80,6 +77,10 @@
   </si>
   <si>
     <t>maxHp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChurchGrim</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -408,7 +409,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -421,10 +422,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -459,7 +460,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -482,12 +483,12 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>150</v>
@@ -505,7 +506,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -528,12 +529,12 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>75</v>
@@ -551,12 +552,12 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>50</v>
@@ -574,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
+++ b/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -73,10 +73,6 @@
   </si>
   <si>
     <t>hp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>maxHp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -406,41 +402,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -448,22 +441,19 @@
         <v>65</v>
       </c>
       <c r="C2">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>15</v>
       </c>
       <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="F2">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -471,22 +461,19 @@
         <v>65</v>
       </c>
       <c r="C3">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -494,22 +481,19 @@
         <v>150</v>
       </c>
       <c r="C4">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -517,45 +501,39 @@
         <v>50</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>75</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -563,25 +541,22 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"FIRE,WIND,VOID,EARTH,WATER,NUM"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
+++ b/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>ChurchGrim</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65-12-111</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -405,7 +409,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -437,8 +441,8 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>65</v>
+      <c r="B2" t="s">
+        <v>17</v>
       </c>
       <c r="C2">
         <v>15</v>

--- a/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
+++ b/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -80,7 +80,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>65-12-111</t>
+    <t>40-50-55</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25-15-20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20-20-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70-75-80</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23-20-17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17-15-13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50-53-55</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20-15-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-7-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65-70</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15-17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20-13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -124,8 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -409,12 +462,13 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
@@ -442,13 +496,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -461,13 +515,13 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>65</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>15</v>
       </c>
       <c r="E3">
@@ -481,14 +535,14 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>150</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>30</v>
       </c>
-      <c r="D4">
-        <v>20</v>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -501,14 +555,14 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -521,14 +575,14 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
-        <v>75</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>15</v>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -541,14 +595,14 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
       </c>
       <c r="E7">
         <v>9</v>

--- a/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
+++ b/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>65</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>65-70</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -133,6 +129,22 @@
   </si>
   <si>
     <t>30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65-67-70</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20-13-20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15-20-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>basePoint</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -176,9 +188,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -459,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -471,7 +484,7 @@
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,19 +503,22 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -510,19 +526,22 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -530,8 +549,11 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -542,7 +564,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -550,8 +572,11 @@
       <c r="F4" t="s">
         <v>10</v>
       </c>
+      <c r="G4" s="2">
+        <v>210</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -570,8 +595,11 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
+      <c r="G5">
+        <v>75</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -590,8 +618,11 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
+      <c r="G6">
+        <v>110</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -609,6 +640,9 @@
       </c>
       <c r="F7" t="s">
         <v>13</v>
+      </c>
+      <c r="G7">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
+++ b/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -116,18 +116,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>65-70</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15-17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20-13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>30</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -145,6 +133,22 @@
   </si>
   <si>
     <t>basePoint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65-70-60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15-17-22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20-13-18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -475,7 +479,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -504,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -512,13 +516,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -535,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -560,11 +564,11 @@
       <c r="B4" s="1">
         <v>150</v>
       </c>
-      <c r="C4" s="1">
-        <v>30</v>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>12</v>

--- a/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
+++ b/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>30</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>65-67-70</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -148,7 +144,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>30</t>
+    <t>50</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -479,7 +475,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -508,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -516,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -539,13 +535,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -565,10 +561,10 @@
         <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>12</v>

--- a/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
+++ b/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
@@ -475,7 +475,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -573,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="2">
-        <v>210</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">

--- a/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
+++ b/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -145,6 +145,10 @@
   </si>
   <si>
     <t>50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>75</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -475,7 +479,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -564,7 +568,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>12</v>

--- a/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
+++ b/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -144,11 +144,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>50</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>75</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -479,7 +483,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -561,14 +565,14 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1">
-        <v>150</v>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -577,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="2">
-        <v>250</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">

--- a/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
+++ b/Assets/Resources/Datas/ExcelSheets/DrumonParameters.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
@@ -96,14 +96,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>23-20-17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>17-15-13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>50-53-55</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -144,22 +136,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>75</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>200</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>100</t>
+    <t>50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-10-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16-13-10</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,16 +483,16 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,21 +512,21 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -538,18 +538,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -561,18 +561,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -581,21 +581,21 @@
         <v>10</v>
       </c>
       <c r="G4" s="2">
-        <v>375</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -607,7 +607,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -615,10 +615,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -627,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
